--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_9.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_9.qasm_rb2_archsize3_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0220177173614502</v>
+        <v>0.0005550384521484375</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0007150173187255859</v>
+        <v>0.0005118846893310547</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00113677978515625</v>
+        <v>0.001688718795776367</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(2, 2), (2, 0), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (0, 1), (1, 1)]</t>
+          <t>[[2, 2], [2, 0], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 0), (0, 2), (0, 0), (1, 1), (0, 1), (1, 2), (2, 0), (2, 2)]</t>
+          <t>[[2, 1], [1, 0], [0, 2], [0, 0], [1, 1], [0, 1], [1, 2], [2, 0], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (1, 0), (2, 0), (1, 2), (2, 2)]</t>
+          <t>[[0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [1, 0], [2, 0], [1, 2], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -1233,110 +1233,120 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>13</v>
+        <v>0.9992305434331438</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.03257179260253906</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.01288104057312012</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr">
+      <c r="K115" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr">
+      <c r="L115" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr">
+      <c r="M115" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N114" t="inlineStr">
+      <c r="N115" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_9.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_9.qasm_rb2_archsize3_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0005550384521484375</v>
+        <v>0.0007281303405761719</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0005118846893310547</v>
+        <v>0.0006449222564697266</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001688718795776367</v>
+        <v>0.01160907745361328</v>
       </c>
     </row>
     <row r="8">
@@ -1277,7 +1277,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.01288104057312012</v>
+        <v>0.02643084526062012</v>
       </c>
     </row>
     <row r="115">
